--- a/Networks.xlsx
+++ b/Networks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python27\Projects\apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BC72A-4A0C-42D1-A768-EBD0517B8F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E53929-5C1A-4700-A570-AE87F7F7EF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{F888828B-87A2-40E9-B98C-15D912C19001}"/>
+    <workbookView xWindow="-28455" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{F888828B-87A2-40E9-B98C-15D912C19001}"/>
   </bookViews>
   <sheets>
     <sheet name="Networks" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>10.10.3.64</t>
   </si>
   <si>
-    <t>10.10.4.32</t>
-  </si>
-  <si>
     <t>10.10.5.16</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Web</t>
+  </si>
+  <si>
+    <t>10.10.3.128</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,19 +527,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,19 +547,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,119 +567,119 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
